--- a/dataanalysis/data/predictions/1000/07180951_0953.xlsx
+++ b/dataanalysis/data/predictions/1000/07180951_0953.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
@@ -395,12 +398,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -758,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,19 +843,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-6.02</v>
@@ -876,7 +876,7 @@
         <v>27515.53</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -896,8 +896,23 @@
       <c r="P2">
         <v>0.06</v>
       </c>
+      <c r="Q2">
+        <v>-3.16</v>
+      </c>
+      <c r="R2">
+        <v>5.1</v>
+      </c>
+      <c r="S2">
+        <v>8.970000000000001</v>
+      </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -905,22 +920,25 @@
       <c r="Z2">
         <v>2.188769102096558</v>
       </c>
-      <c r="AA2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0.85</v>
@@ -938,7 +956,7 @@
         <v>18854.22</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -958,8 +976,23 @@
       <c r="P3">
         <v>0</v>
       </c>
+      <c r="Q3">
+        <v>3.93</v>
+      </c>
+      <c r="R3">
+        <v>23.22</v>
+      </c>
+      <c r="S3">
+        <v>2.93</v>
+      </c>
       <c r="V3" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -967,22 +1000,25 @@
       <c r="Z3">
         <v>3.09868335723877</v>
       </c>
-      <c r="AA3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1.03</v>
@@ -1000,7 +1036,7 @@
         <v>34146.07</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1020,8 +1056,23 @@
       <c r="P4">
         <v>-0.38</v>
       </c>
+      <c r="Q4">
+        <v>-3.04</v>
+      </c>
+      <c r="R4">
+        <v>43.46</v>
+      </c>
+      <c r="S4">
+        <v>2.72</v>
+      </c>
       <c r="V4" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1029,22 +1080,25 @@
       <c r="Z4">
         <v>2.624037027359009</v>
       </c>
-      <c r="AA4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1062,7 +1116,7 @@
         <v>40971.75</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1082,8 +1136,23 @@
       <c r="P5">
         <v>-0.15</v>
       </c>
+      <c r="Q5">
+        <v>4.3</v>
+      </c>
+      <c r="R5">
+        <v>6.88</v>
+      </c>
+      <c r="S5">
+        <v>9.210000000000001</v>
+      </c>
       <c r="V5" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1091,22 +1160,25 @@
       <c r="Z5">
         <v>0.8944809436798096</v>
       </c>
-      <c r="AA5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300130</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1.13</v>
@@ -1124,7 +1196,7 @@
         <v>27857.83</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>24</v>
@@ -1144,8 +1216,23 @@
       <c r="P6">
         <v>0.03</v>
       </c>
+      <c r="Q6">
+        <v>-3.64</v>
+      </c>
+      <c r="R6">
+        <v>32.64</v>
+      </c>
+      <c r="S6">
+        <v>-1.06</v>
+      </c>
       <c r="V6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1153,22 +1240,25 @@
       <c r="Z6">
         <v>-0.7585329413414001</v>
       </c>
-      <c r="AA6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300180</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>-0.32</v>
@@ -1186,7 +1276,7 @@
         <v>25342.03</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -1206,8 +1296,23 @@
       <c r="P7">
         <v>-0.18</v>
       </c>
+      <c r="Q7">
+        <v>-0.76</v>
+      </c>
+      <c r="R7">
+        <v>9.18</v>
+      </c>
+      <c r="S7">
+        <v>-2.03</v>
+      </c>
       <c r="V7" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1215,22 +1320,25 @@
       <c r="Z7">
         <v>6.425782203674316</v>
       </c>
-      <c r="AA7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300195</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-2.73</v>
@@ -1248,7 +1356,7 @@
         <v>15147.78</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1268,8 +1376,23 @@
       <c r="P8">
         <v>-0.76</v>
       </c>
+      <c r="Q8">
+        <v>2.33</v>
+      </c>
+      <c r="R8">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S8">
+        <v>1.95</v>
+      </c>
       <c r="V8" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1277,22 +1400,25 @@
       <c r="Z8">
         <v>2.347813367843628</v>
       </c>
-      <c r="AA8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-1.58</v>
@@ -1310,7 +1436,7 @@
         <v>39049.37</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1330,8 +1456,23 @@
       <c r="P9">
         <v>-0.41</v>
       </c>
+      <c r="Q9">
+        <v>-2.49</v>
+      </c>
+      <c r="R9">
+        <v>19.24</v>
+      </c>
+      <c r="S9">
+        <v>-0.36</v>
+      </c>
       <c r="V9" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1339,22 +1480,25 @@
       <c r="Z9">
         <v>2.794709205627441</v>
       </c>
-      <c r="AA9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300226</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.94</v>
@@ -1372,7 +1516,7 @@
         <v>47860.33</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1392,8 +1536,23 @@
       <c r="P10">
         <v>-0.15</v>
       </c>
+      <c r="Q10">
+        <v>-1.21</v>
+      </c>
+      <c r="R10">
+        <v>29.2</v>
+      </c>
+      <c r="S10">
+        <v>-1.95</v>
+      </c>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1401,22 +1560,25 @@
       <c r="Z10">
         <v>1.210806369781494</v>
       </c>
-      <c r="AA10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300283</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>17.94</v>
@@ -1434,7 +1596,7 @@
         <v>50003.54</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1454,8 +1616,23 @@
       <c r="P11">
         <v>0.61</v>
       </c>
+      <c r="Q11">
+        <v>-5.91</v>
+      </c>
+      <c r="R11">
+        <v>8.35</v>
+      </c>
+      <c r="S11">
+        <v>-1.53</v>
+      </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1463,22 +1640,25 @@
       <c r="Z11">
         <v>14.75960731506348</v>
       </c>
-      <c r="AA11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300348</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1.95</v>
@@ -1496,7 +1676,7 @@
         <v>47820.52</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1516,8 +1696,23 @@
       <c r="P12">
         <v>0.34</v>
       </c>
+      <c r="Q12">
+        <v>-3.11</v>
+      </c>
+      <c r="R12">
+        <v>18.82</v>
+      </c>
+      <c r="S12">
+        <v>-2.69</v>
+      </c>
       <c r="V12" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1525,22 +1720,25 @@
       <c r="Z12">
         <v>0.1357084512710571</v>
       </c>
-      <c r="AA12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300363</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>-0.4</v>
@@ -1558,7 +1756,7 @@
         <v>14955.18</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1578,8 +1776,23 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>0.2</v>
+      </c>
+      <c r="R13">
+        <v>20.1</v>
+      </c>
+      <c r="S13">
+        <v>0.55</v>
+      </c>
       <c r="V13" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1587,22 +1800,25 @@
       <c r="Z13">
         <v>4.010016918182373</v>
       </c>
-      <c r="AA13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300414</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-1.9</v>
@@ -1620,7 +1836,7 @@
         <v>8980.83</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1640,8 +1856,23 @@
       <c r="P14">
         <v>-0.41</v>
       </c>
+      <c r="Q14">
+        <v>2.4</v>
+      </c>
+      <c r="R14">
+        <v>13.98</v>
+      </c>
+      <c r="S14">
+        <v>8.039999999999999</v>
+      </c>
       <c r="V14" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1649,22 +1880,25 @@
       <c r="Z14">
         <v>1.15681004524231</v>
       </c>
-      <c r="AA14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300436</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-3.4</v>
@@ -1682,7 +1916,7 @@
         <v>37324.45</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -1702,8 +1936,23 @@
       <c r="P15">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q15">
+        <v>4.66</v>
+      </c>
+      <c r="R15">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="S15">
+        <v>10.75</v>
+      </c>
       <c r="V15" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1711,22 +1960,25 @@
       <c r="Z15">
         <v>5.618652820587158</v>
       </c>
-      <c r="AA15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300469</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1.32</v>
@@ -1744,7 +1996,7 @@
         <v>23589.5</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -1764,8 +2016,23 @@
       <c r="P16">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q16">
+        <v>-0.22</v>
+      </c>
+      <c r="R16">
+        <v>47.1</v>
+      </c>
+      <c r="S16">
+        <v>0.6</v>
+      </c>
       <c r="V16" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1773,22 +2040,25 @@
       <c r="Z16">
         <v>1.261040687561035</v>
       </c>
-      <c r="AA16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300502</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>3.51</v>
@@ -1806,7 +2076,7 @@
         <v>373595.08</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>18</v>
@@ -1826,8 +2096,23 @@
       <c r="P17">
         <v>0.03</v>
       </c>
+      <c r="Q17">
+        <v>-2.23</v>
+      </c>
+      <c r="R17">
+        <v>186.6</v>
+      </c>
+      <c r="S17">
+        <v>-1.76</v>
+      </c>
       <c r="V17" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1835,22 +2120,25 @@
       <c r="Z17">
         <v>-0.06540434807538986</v>
       </c>
-      <c r="AA17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300522</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.71</v>
@@ -1868,7 +2156,7 @@
         <v>23189.99</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -1888,8 +2176,23 @@
       <c r="P18">
         <v>-0.43</v>
       </c>
+      <c r="Q18">
+        <v>-0.06</v>
+      </c>
+      <c r="R18">
+        <v>17.21</v>
+      </c>
+      <c r="S18">
+        <v>2.56</v>
+      </c>
       <c r="V18" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1897,22 +2200,25 @@
       <c r="Z18">
         <v>6.658263206481934</v>
       </c>
-      <c r="AA18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300527</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-1.6</v>
@@ -1930,7 +2236,7 @@
         <v>14763.08</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>14</v>
@@ -1950,8 +2256,23 @@
       <c r="P19">
         <v>-0.09</v>
       </c>
+      <c r="Q19">
+        <v>-0.63</v>
+      </c>
+      <c r="R19">
+        <v>11.26</v>
+      </c>
+      <c r="S19">
+        <v>1.72</v>
+      </c>
       <c r="V19" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1959,22 +2280,25 @@
       <c r="Z19">
         <v>1.305002927780151</v>
       </c>
-      <c r="AA19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300533</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-3.21</v>
@@ -1992,7 +2316,7 @@
         <v>28021</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>18</v>
@@ -2012,8 +2336,23 @@
       <c r="P20">
         <v>-0.5</v>
       </c>
+      <c r="Q20">
+        <v>2.83</v>
+      </c>
+      <c r="R20">
+        <v>37.43</v>
+      </c>
+      <c r="S20">
+        <v>1.66</v>
+      </c>
       <c r="V20" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2021,22 +2360,25 @@
       <c r="Z20">
         <v>5.39280366897583</v>
       </c>
-      <c r="AA20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300537</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-0.31</v>
@@ -2054,7 +2396,7 @@
         <v>8524.32</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>15</v>
@@ -2074,8 +2416,23 @@
       <c r="P21">
         <v>-0.01</v>
       </c>
+      <c r="Q21">
+        <v>0.24</v>
+      </c>
+      <c r="R21">
+        <v>25.96</v>
+      </c>
+      <c r="S21">
+        <v>1.37</v>
+      </c>
       <c r="V21" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2083,22 +2440,25 @@
       <c r="Z21">
         <v>1.825990796089172</v>
       </c>
-      <c r="AA21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300541</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-1.44</v>
@@ -2116,7 +2476,7 @@
         <v>17559.75</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2136,8 +2496,23 @@
       <c r="P22">
         <v>-0.54</v>
       </c>
+      <c r="Q22">
+        <v>-0.19</v>
+      </c>
+      <c r="R22">
+        <v>16.15</v>
+      </c>
+      <c r="S22">
+        <v>-1.82</v>
+      </c>
       <c r="V22" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2145,22 +2520,25 @@
       <c r="Z22">
         <v>0.739069402217865</v>
       </c>
-      <c r="AA22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300548</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>4.48</v>
@@ -2178,7 +2556,7 @@
         <v>93669.86</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2198,8 +2576,23 @@
       <c r="P23">
         <v>0.04</v>
       </c>
+      <c r="Q23">
+        <v>-0.88</v>
+      </c>
+      <c r="R23">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="S23">
+        <v>-1.46</v>
+      </c>
       <c r="V23" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2207,22 +2600,25 @@
       <c r="Z23">
         <v>-0.7157664895057678</v>
       </c>
-      <c r="AA23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300551</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-1.01</v>
@@ -2240,7 +2636,7 @@
         <v>9449.219999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2260,8 +2656,23 @@
       <c r="P24">
         <v>-0.05</v>
       </c>
+      <c r="Q24">
+        <v>1.11</v>
+      </c>
+      <c r="R24">
+        <v>11.93</v>
+      </c>
+      <c r="S24">
+        <v>0.93</v>
+      </c>
       <c r="V24" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2269,22 +2680,25 @@
       <c r="Z24">
         <v>0.7839871644973755</v>
       </c>
-      <c r="AA24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300581</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-1.85</v>
@@ -2302,7 +2716,7 @@
         <v>57411.43</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2322,8 +2736,23 @@
       <c r="P25">
         <v>-0.3</v>
       </c>
+      <c r="Q25">
+        <v>1.2</v>
+      </c>
+      <c r="R25">
+        <v>21.3</v>
+      </c>
+      <c r="S25">
+        <v>5.45</v>
+      </c>
       <c r="V25" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2331,22 +2760,25 @@
       <c r="Z25">
         <v>1.001858115196228</v>
       </c>
-      <c r="AA25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300591</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-0.96</v>
@@ -2364,7 +2796,7 @@
         <v>38791.43</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>19</v>
@@ -2384,8 +2816,23 @@
       <c r="P26">
         <v>-0.43</v>
       </c>
+      <c r="Q26">
+        <v>1.64</v>
+      </c>
+      <c r="R26">
+        <v>12.77</v>
+      </c>
+      <c r="S26">
+        <v>3.32</v>
+      </c>
       <c r="V26" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2393,22 +2840,25 @@
       <c r="Z26">
         <v>6.52491283416748</v>
       </c>
-      <c r="AA26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300600</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-3.98</v>
@@ -2426,7 +2876,7 @@
         <v>22462.14</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>16</v>
@@ -2446,8 +2896,23 @@
       <c r="P27">
         <v>-1.11</v>
       </c>
+      <c r="Q27">
+        <v>-0.38</v>
+      </c>
+      <c r="R27">
+        <v>15.96</v>
+      </c>
+      <c r="S27">
+        <v>0.25</v>
+      </c>
       <c r="V27" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2455,22 +2920,25 @@
       <c r="Z27">
         <v>3.32660961151123</v>
       </c>
-      <c r="AA27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300631</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>7.1</v>
@@ -2488,7 +2956,7 @@
         <v>27444.42</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -2508,8 +2976,23 @@
       <c r="P28">
         <v>0.46</v>
       </c>
+      <c r="Q28">
+        <v>2.73</v>
+      </c>
+      <c r="R28">
+        <v>36.38</v>
+      </c>
+      <c r="S28">
+        <v>21.15</v>
+      </c>
       <c r="V28" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2517,22 +3000,25 @@
       <c r="Z28">
         <v>3.695326089859009</v>
       </c>
-      <c r="AA28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300644</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>1.38</v>
@@ -2550,7 +3036,7 @@
         <v>66505.73</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2570,8 +3056,23 @@
       <c r="P29">
         <v>-2.59</v>
       </c>
+      <c r="Q29">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="R29">
+        <v>38.96</v>
+      </c>
+      <c r="S29">
+        <v>15.27</v>
+      </c>
       <c r="V29" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2579,22 +3080,25 @@
       <c r="Z29">
         <v>-1.459187984466553</v>
       </c>
-      <c r="AA29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300703</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-2.24</v>
@@ -2612,7 +3116,7 @@
         <v>10067.71</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -2632,8 +3136,23 @@
       <c r="P30">
         <v>-0.21</v>
       </c>
+      <c r="Q30">
+        <v>2.87</v>
+      </c>
+      <c r="R30">
+        <v>26.6</v>
+      </c>
+      <c r="S30">
+        <v>5.1</v>
+      </c>
       <c r="V30" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2641,22 +3160,25 @@
       <c r="Z30">
         <v>3.365350008010864</v>
       </c>
-      <c r="AA30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300748</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>1.75</v>
@@ -2674,7 +3196,7 @@
         <v>39024.8</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -2694,8 +3216,23 @@
       <c r="P31">
         <v>0.01</v>
       </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>27.69</v>
+      </c>
+      <c r="S31">
+        <v>5.85</v>
+      </c>
       <c r="V31" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2703,22 +3240,25 @@
       <c r="Z31">
         <v>4.430323600769043</v>
       </c>
-      <c r="AA31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300803</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-0.22</v>
@@ -2736,7 +3276,7 @@
         <v>91129.02</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>16</v>
@@ -2756,8 +3296,23 @@
       <c r="P32">
         <v>-0.02</v>
       </c>
+      <c r="Q32">
+        <v>-2.86</v>
+      </c>
+      <c r="R32">
+        <v>86.48</v>
+      </c>
+      <c r="S32">
+        <v>-0.92</v>
+      </c>
       <c r="V32" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2765,22 +3320,25 @@
       <c r="Z32">
         <v>4.867867469787598</v>
       </c>
-      <c r="AA32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300830</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-3.04</v>
@@ -2798,7 +3356,7 @@
         <v>61558.92</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2818,8 +3376,23 @@
       <c r="P33">
         <v>-3.79</v>
       </c>
+      <c r="Q33">
+        <v>-3.05</v>
+      </c>
+      <c r="R33">
+        <v>11.02</v>
+      </c>
+      <c r="S33">
+        <v>-1.34</v>
+      </c>
       <c r="V33" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2827,22 +3400,25 @@
       <c r="Z33">
         <v>-2.614436149597168</v>
       </c>
-      <c r="AA33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300835</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>1.89</v>
@@ -2860,7 +3436,7 @@
         <v>12658.69</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2880,8 +3456,23 @@
       <c r="P34">
         <v>0.15</v>
       </c>
+      <c r="Q34">
+        <v>1.19</v>
+      </c>
+      <c r="R34">
+        <v>48.9</v>
+      </c>
+      <c r="S34">
+        <v>0.62</v>
+      </c>
       <c r="V34" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2889,22 +3480,25 @@
       <c r="Z34">
         <v>2.248904943466187</v>
       </c>
-      <c r="AA34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300839</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-1.63</v>
@@ -2922,7 +3516,7 @@
         <v>11582.31</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2942,8 +3536,23 @@
       <c r="P35">
         <v>-0.12</v>
       </c>
+      <c r="Q35">
+        <v>1.82</v>
+      </c>
+      <c r="R35">
+        <v>15.9</v>
+      </c>
+      <c r="S35">
+        <v>10.11</v>
+      </c>
       <c r="V35" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2951,22 +3560,25 @@
       <c r="Z35">
         <v>4.345287799835205</v>
       </c>
-      <c r="AA35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300872</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-0.41</v>
@@ -2984,7 +3596,7 @@
         <v>27287.15</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K36">
         <v>25</v>
@@ -3004,8 +3616,23 @@
       <c r="P36">
         <v>-0.12</v>
       </c>
+      <c r="Q36">
+        <v>0.66</v>
+      </c>
+      <c r="R36">
+        <v>25.26</v>
+      </c>
+      <c r="S36">
+        <v>2.89</v>
+      </c>
       <c r="V36" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3013,22 +3640,25 @@
       <c r="Z36">
         <v>4.855534553527832</v>
       </c>
-      <c r="AA36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300903</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>9.550000000000001</v>
@@ -3046,7 +3676,7 @@
         <v>51663.34</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3066,8 +3696,23 @@
       <c r="P37">
         <v>0.31</v>
       </c>
+      <c r="Q37">
+        <v>-0.71</v>
+      </c>
+      <c r="R37">
+        <v>11.6</v>
+      </c>
+      <c r="S37">
+        <v>-2.77</v>
+      </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3075,22 +3720,25 @@
       <c r="Z37">
         <v>2.426921606063843</v>
       </c>
-      <c r="AA37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300950</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-2.51</v>
@@ -3108,7 +3756,7 @@
         <v>30396.37</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3128,8 +3776,23 @@
       <c r="P38">
         <v>0.02</v>
       </c>
+      <c r="Q38">
+        <v>-6.4</v>
+      </c>
+      <c r="R38">
+        <v>32.76</v>
+      </c>
+      <c r="S38">
+        <v>-0.88</v>
+      </c>
       <c r="V38" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3137,22 +3800,25 @@
       <c r="Z38">
         <v>-0.3295918405056</v>
       </c>
-      <c r="AA38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301012</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-5.75</v>
@@ -3170,7 +3836,7 @@
         <v>42943.35</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -3190,8 +3856,23 @@
       <c r="P39">
         <v>-0.03</v>
       </c>
+      <c r="Q39">
+        <v>2.99</v>
+      </c>
+      <c r="R39">
+        <v>24.47</v>
+      </c>
+      <c r="S39">
+        <v>2.21</v>
+      </c>
       <c r="V39" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3199,22 +3880,25 @@
       <c r="Z39">
         <v>1.67163622379303</v>
       </c>
-      <c r="AA39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301132</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0.9</v>
@@ -3232,7 +3916,7 @@
         <v>58777.88</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3252,8 +3936,23 @@
       <c r="P40">
         <v>-4.1</v>
       </c>
+      <c r="Q40">
+        <v>-2.91</v>
+      </c>
+      <c r="R40">
+        <v>39.18</v>
+      </c>
+      <c r="S40">
+        <v>-2.63</v>
+      </c>
       <c r="V40" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -3261,22 +3960,25 @@
       <c r="Z40">
         <v>4.866934776306152</v>
       </c>
-      <c r="AA40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301141</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>1.35</v>
@@ -3294,7 +3996,7 @@
         <v>24976.95</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K41">
         <v>16</v>
@@ -3314,8 +4016,23 @@
       <c r="P41">
         <v>-0.21</v>
       </c>
+      <c r="Q41">
+        <v>-3.14</v>
+      </c>
+      <c r="R41">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="S41">
+        <v>1.99</v>
+      </c>
       <c r="V41" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3323,22 +4040,25 @@
       <c r="Z41">
         <v>3.480285167694092</v>
       </c>
-      <c r="AA41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301165</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-0.78</v>
@@ -3356,7 +4076,7 @@
         <v>19135.3</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3376,8 +4096,23 @@
       <c r="P42">
         <v>-0.38</v>
       </c>
+      <c r="Q42">
+        <v>-1.44</v>
+      </c>
+      <c r="R42">
+        <v>63.22</v>
+      </c>
+      <c r="S42">
+        <v>-0.58</v>
+      </c>
       <c r="V42" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3385,22 +4120,25 @@
       <c r="Z42">
         <v>3.816501140594482</v>
       </c>
-      <c r="AA42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301176</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-0.91</v>
@@ -3418,7 +4156,7 @@
         <v>20469.69</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K43">
         <v>21</v>
@@ -3438,8 +4176,23 @@
       <c r="P43">
         <v>-0.61</v>
       </c>
+      <c r="Q43">
+        <v>1.58</v>
+      </c>
+      <c r="R43">
+        <v>34.47</v>
+      </c>
+      <c r="S43">
+        <v>-1.06</v>
+      </c>
       <c r="V43" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3447,22 +4200,25 @@
       <c r="Z43">
         <v>0.563273549079895</v>
       </c>
-      <c r="AA43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301183</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-0.98</v>
@@ -3480,7 +4236,7 @@
         <v>29860.13</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3500,8 +4256,23 @@
       <c r="P44">
         <v>-0.39</v>
       </c>
+      <c r="Q44">
+        <v>-1.46</v>
+      </c>
+      <c r="R44">
+        <v>75.94</v>
+      </c>
+      <c r="S44">
+        <v>-1.16</v>
+      </c>
       <c r="V44" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3509,22 +4280,25 @@
       <c r="Z44">
         <v>1.605487704277039</v>
       </c>
-      <c r="AA44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301217</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>8.49</v>
@@ -3542,7 +4316,7 @@
         <v>96107.84</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K45">
         <v>10</v>
@@ -3562,8 +4336,23 @@
       <c r="P45">
         <v>-0.23</v>
       </c>
+      <c r="Q45">
+        <v>-1.81</v>
+      </c>
+      <c r="R45">
+        <v>21.98</v>
+      </c>
+      <c r="S45">
+        <v>-2.87</v>
+      </c>
       <c r="V45" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3571,22 +4360,25 @@
       <c r="Z45">
         <v>2.862360239028931</v>
       </c>
-      <c r="AA45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301345</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-1.76</v>
@@ -3604,7 +4396,7 @@
         <v>12022.23</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K46">
         <v>14</v>
@@ -3624,8 +4416,23 @@
       <c r="P46">
         <v>-0.27</v>
       </c>
+      <c r="Q46">
+        <v>-1.77</v>
+      </c>
+      <c r="R46">
+        <v>138.67</v>
+      </c>
+      <c r="S46">
+        <v>-0.38</v>
+      </c>
       <c r="V46" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3633,22 +4440,25 @@
       <c r="Z46">
         <v>4.179526805877686</v>
       </c>
-      <c r="AA46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301357</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-4.53</v>
@@ -3666,7 +4476,7 @@
         <v>27553.85</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3686,8 +4496,23 @@
       <c r="P47">
         <v>-2.08</v>
       </c>
+      <c r="Q47">
+        <v>-0.71</v>
+      </c>
+      <c r="R47">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="S47">
+        <v>4.87</v>
+      </c>
       <c r="V47" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3695,22 +4520,25 @@
       <c r="Z47">
         <v>2.639740228652954</v>
       </c>
-      <c r="AA47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301377</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>5.95</v>
@@ -3728,7 +4556,7 @@
         <v>23374.95</v>
       </c>
       <c r="J48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -3748,8 +4576,23 @@
       <c r="P48">
         <v>0.5</v>
       </c>
+      <c r="Q48">
+        <v>0.04</v>
+      </c>
+      <c r="R48">
+        <v>45.6</v>
+      </c>
+      <c r="S48">
+        <v>-1.91</v>
+      </c>
       <c r="V48" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3757,22 +4600,25 @@
       <c r="Z48">
         <v>7.129382133483887</v>
       </c>
-      <c r="AA48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301388</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>4.13</v>
@@ -3790,7 +4636,7 @@
         <v>16561.81</v>
       </c>
       <c r="J49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K49">
         <v>10</v>
@@ -3810,8 +4656,23 @@
       <c r="P49">
         <v>1.12</v>
       </c>
+      <c r="Q49">
+        <v>0.05</v>
+      </c>
+      <c r="R49">
+        <v>40.44</v>
+      </c>
+      <c r="S49">
+        <v>1.4</v>
+      </c>
       <c r="V49" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3819,22 +4680,25 @@
       <c r="Z49">
         <v>2.384121179580688</v>
       </c>
-      <c r="AA49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301389</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>5.03</v>
@@ -3852,7 +4716,7 @@
         <v>40451.27</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -3872,8 +4736,23 @@
       <c r="P50">
         <v>0.99</v>
       </c>
+      <c r="Q50">
+        <v>2.02</v>
+      </c>
+      <c r="R50">
+        <v>34.18</v>
+      </c>
+      <c r="S50">
+        <v>-1.47</v>
+      </c>
       <c r="V50" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3881,22 +4760,25 @@
       <c r="Z50">
         <v>0.07480053603649139</v>
       </c>
-      <c r="AA50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301511</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>1.97</v>
@@ -3914,7 +4796,7 @@
         <v>37065.64</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K51">
         <v>19</v>
@@ -3934,8 +4816,23 @@
       <c r="P51">
         <v>0.2</v>
       </c>
+      <c r="Q51">
+        <v>13.16</v>
+      </c>
+      <c r="R51">
+        <v>29.36</v>
+      </c>
+      <c r="S51">
+        <v>9.19</v>
+      </c>
       <c r="V51" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3943,22 +4840,25 @@
       <c r="Z51">
         <v>-0.1863494515419006</v>
       </c>
-      <c r="AA51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301526</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>2.41</v>
@@ -3976,7 +4876,7 @@
         <v>33510.96</v>
       </c>
       <c r="J52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -3996,8 +4896,23 @@
       <c r="P52">
         <v>0.11</v>
       </c>
+      <c r="Q52">
+        <v>2.23</v>
+      </c>
+      <c r="R52">
+        <v>5.09</v>
+      </c>
+      <c r="S52">
+        <v>-0.2</v>
+      </c>
       <c r="V52" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4005,22 +4920,25 @@
       <c r="Z52">
         <v>3.868472337722778</v>
       </c>
-      <c r="AA52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>688062</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-2.25</v>
@@ -4038,7 +4956,7 @@
         <v>29315.99</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -4058,8 +4976,23 @@
       <c r="P53">
         <v>-0.61</v>
       </c>
+      <c r="Q53">
+        <v>-1.1</v>
+      </c>
+      <c r="R53">
+        <v>36.56</v>
+      </c>
+      <c r="S53">
+        <v>0.19</v>
+      </c>
       <c r="V53" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4067,22 +5000,25 @@
       <c r="Z53">
         <v>3.244786739349365</v>
       </c>
-      <c r="AA53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688117</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>0.1</v>
@@ -4100,7 +5036,7 @@
         <v>9371.5</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -4120,8 +5056,23 @@
       <c r="P54">
         <v>-0.01</v>
       </c>
+      <c r="Q54">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R54">
+        <v>44.19</v>
+      </c>
+      <c r="S54">
+        <v>12.02</v>
+      </c>
       <c r="V54" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4129,22 +5080,25 @@
       <c r="Z54">
         <v>3.205822706222534</v>
       </c>
-      <c r="AA54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688202</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-0.07000000000000001</v>
@@ -4162,7 +5116,7 @@
         <v>26833.69</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -4182,8 +5136,23 @@
       <c r="P55">
         <v>-0.15</v>
       </c>
+      <c r="Q55">
+        <v>-1.62</v>
+      </c>
+      <c r="R55">
+        <v>59.55</v>
+      </c>
+      <c r="S55">
+        <v>1.45</v>
+      </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4191,22 +5160,25 @@
       <c r="Z55">
         <v>1.952567100524902</v>
       </c>
-      <c r="AA55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688221</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-3.71</v>
@@ -4224,7 +5196,7 @@
         <v>13643.19</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -4244,8 +5216,23 @@
       <c r="P56">
         <v>-0.01</v>
       </c>
+      <c r="Q56">
+        <v>3.79</v>
+      </c>
+      <c r="R56">
+        <v>24.67</v>
+      </c>
+      <c r="S56">
+        <v>24.97</v>
+      </c>
       <c r="V56" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4253,22 +5240,25 @@
       <c r="Z56">
         <v>2.419582843780518</v>
       </c>
-      <c r="AA56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688222</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>0.51</v>
@@ -4286,7 +5276,7 @@
         <v>74919.71000000001</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4306,8 +5296,23 @@
       <c r="P57">
         <v>-1.09</v>
       </c>
+      <c r="Q57">
+        <v>6.38</v>
+      </c>
+      <c r="R57">
+        <v>24.2</v>
+      </c>
+      <c r="S57">
+        <v>12.19</v>
+      </c>
       <c r="V57" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4315,22 +5320,25 @@
       <c r="Z57">
         <v>4.075074195861816</v>
       </c>
-      <c r="AA57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688313</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>4.33</v>
@@ -4348,7 +5356,7 @@
         <v>68096.28999999999</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K58">
         <v>23</v>
@@ -4368,8 +5376,23 @@
       <c r="P58">
         <v>0.04</v>
       </c>
+      <c r="Q58">
+        <v>-1.03</v>
+      </c>
+      <c r="R58">
+        <v>54.62</v>
+      </c>
+      <c r="S58">
+        <v>0.24</v>
+      </c>
       <c r="V58" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4377,22 +5400,25 @@
       <c r="Z58">
         <v>-0.6491320729255676</v>
       </c>
-      <c r="AA58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688499</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>6.77</v>
@@ -4410,7 +5436,7 @@
         <v>33227.24</v>
       </c>
       <c r="J59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K59">
         <v>24</v>
@@ -4430,8 +5456,23 @@
       <c r="P59">
         <v>0.04</v>
       </c>
+      <c r="Q59">
+        <v>1.6</v>
+      </c>
+      <c r="R59">
+        <v>50.88</v>
+      </c>
+      <c r="S59">
+        <v>9.42</v>
+      </c>
       <c r="V59" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4439,22 +5480,25 @@
       <c r="Z59">
         <v>0.5713205933570862</v>
       </c>
-      <c r="AA59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688668</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>1.98</v>
@@ -4472,7 +5516,7 @@
         <v>21982.38</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -4492,8 +5536,23 @@
       <c r="P60">
         <v>0.21</v>
       </c>
+      <c r="Q60">
+        <v>10.11</v>
+      </c>
+      <c r="R60">
+        <v>79</v>
+      </c>
+      <c r="S60">
+        <v>8.529999999999999</v>
+      </c>
       <c r="V60" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4501,8 +5560,11 @@
       <c r="Z60">
         <v>-0.442555695772171</v>
       </c>
-      <c r="AA60" t="s">
-        <v>127</v>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
